--- a/Result/ARIMA/Manufacturing/GBR.xlsx
+++ b/Result/ARIMA/Manufacturing/GBR.xlsx
@@ -463,7 +463,7 @@
         <v>1990</v>
       </c>
       <c r="B2" t="n">
-        <v>16.66798755183352</v>
+        <v>-0.2951083986270988</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1991</v>
       </c>
       <c r="B3" t="n">
-        <v>16.26393514474525</v>
+        <v>16.37287915320643</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>16.04603255128911</v>
+        <v>15.96882674611816</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>15.68185759056369</v>
+        <v>15.75092415266201</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>16.40380812564748</v>
+        <v>15.38674919193659</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1995</v>
       </c>
       <c r="B7" t="n">
-        <v>15.48202825036215</v>
+        <v>16.10869972702038</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1996</v>
       </c>
       <c r="B8" t="n">
-        <v>15.26167400687671</v>
+        <v>15.18691985173505</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>15.05881364917567</v>
+        <v>14.96656560824961</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1998</v>
       </c>
       <c r="B10" t="n">
-        <v>14.44569766346996</v>
+        <v>14.76370525054857</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>13.84905515513882</v>
+        <v>14.15058926484286</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2000</v>
       </c>
       <c r="B12" t="n">
-        <v>13.34010013654984</v>
+        <v>13.55394675651172</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>12.45044977202736</v>
+        <v>13.04499173792274</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2002</v>
       </c>
       <c r="B14" t="n">
-        <v>12.14522622183988</v>
+        <v>12.15534137340026</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>11.60670492154575</v>
+        <v>11.85011782321278</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2004</v>
       </c>
       <c r="B16" t="n">
-        <v>10.98015943513545</v>
+        <v>11.31159652291865</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2005</v>
       </c>
       <c r="B17" t="n">
-        <v>10.51679841332442</v>
+        <v>10.68505103650835</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>10.19548703141146</v>
+        <v>10.22169001469732</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>9.645919083782617</v>
+        <v>9.900378632784362</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2008</v>
       </c>
       <c r="B20" t="n">
-        <v>9.506477552490942</v>
+        <v>9.350810685155519</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2009</v>
       </c>
       <c r="B21" t="n">
-        <v>9.106812577065352</v>
+        <v>9.211369153863844</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2010</v>
       </c>
       <c r="B22" t="n">
-        <v>9.497486346254641</v>
+        <v>8.811704178438253</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2011</v>
       </c>
       <c r="B23" t="n">
-        <v>9.338613927807517</v>
+        <v>9.202377947627543</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2012</v>
       </c>
       <c r="B24" t="n">
-        <v>9.294886876908018</v>
+        <v>9.043505529180418</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2013</v>
       </c>
       <c r="B25" t="n">
-        <v>9.505703634097443</v>
+        <v>8.99977847828092</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2014</v>
       </c>
       <c r="B26" t="n">
-        <v>9.326007029243744</v>
+        <v>9.210595235470345</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2015</v>
       </c>
       <c r="B27" t="n">
-        <v>9.213357502950581</v>
+        <v>9.030898630616646</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2016</v>
       </c>
       <c r="B28" t="n">
-        <v>8.995169187528946</v>
+        <v>8.918249104323483</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -885,7 +885,7 @@
         <v>1990</v>
       </c>
       <c r="B2" t="n">
-        <v>16.66798755183352</v>
+        <v>-0.2548739821090755</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -895,7 +895,7 @@
         <v>1991</v>
       </c>
       <c r="B3" t="n">
-        <v>16.26393514474525</v>
+        <v>16.41311356972444</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -905,7 +905,7 @@
         <v>1992</v>
       </c>
       <c r="B4" t="n">
-        <v>16.04603255128911</v>
+        <v>16.00906116263618</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -915,7 +915,7 @@
         <v>1993</v>
       </c>
       <c r="B5" t="n">
-        <v>15.68185759056369</v>
+        <v>15.79115856918003</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -925,7 +925,7 @@
         <v>1994</v>
       </c>
       <c r="B6" t="n">
-        <v>16.40380812564748</v>
+        <v>15.42698360845461</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -935,7 +935,7 @@
         <v>1995</v>
       </c>
       <c r="B7" t="n">
-        <v>15.48202825036215</v>
+        <v>16.1489341435384</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -945,7 +945,7 @@
         <v>1996</v>
       </c>
       <c r="B8" t="n">
-        <v>15.26167400687671</v>
+        <v>15.22715426825308</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -955,7 +955,7 @@
         <v>1997</v>
       </c>
       <c r="B9" t="n">
-        <v>15.05881364917567</v>
+        <v>15.00680002476764</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -965,7 +965,7 @@
         <v>1998</v>
       </c>
       <c r="B10" t="n">
-        <v>14.44569766346996</v>
+        <v>14.8039396670666</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -975,7 +975,7 @@
         <v>1999</v>
       </c>
       <c r="B11" t="n">
-        <v>13.84905515513882</v>
+        <v>14.19082368136089</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -985,7 +985,7 @@
         <v>2000</v>
       </c>
       <c r="B12" t="n">
-        <v>13.34010013654984</v>
+        <v>13.59418117302975</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>2001</v>
       </c>
       <c r="B13" t="n">
-        <v>12.45044977202736</v>
+        <v>13.08522615444076</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
         <v>2002</v>
       </c>
       <c r="B14" t="n">
-        <v>12.14522622183988</v>
+        <v>12.19557578991829</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
         <v>2003</v>
       </c>
       <c r="B15" t="n">
-        <v>11.60670492154575</v>
+        <v>11.89035223973081</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>2004</v>
       </c>
       <c r="B16" t="n">
-        <v>10.98015943513545</v>
+        <v>11.35183093943668</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
         <v>2005</v>
       </c>
       <c r="B17" t="n">
-        <v>10.51679841332442</v>
+        <v>10.72528545302638</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>10.19548703141146</v>
+        <v>10.26192443121534</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
         <v>2007</v>
       </c>
       <c r="B19" t="n">
-        <v>9.645919083782617</v>
+        <v>9.940613049302385</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
         <v>2008</v>
       </c>
       <c r="B20" t="n">
-        <v>9.506477552490942</v>
+        <v>9.391045101673543</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1075,7 +1075,7 @@
         <v>2009</v>
       </c>
       <c r="B21" t="n">
-        <v>9.106812577065352</v>
+        <v>9.251603570381867</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         <v>2010</v>
       </c>
       <c r="B22" t="n">
-        <v>9.497486346254641</v>
+        <v>8.851938594956277</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
         <v>2011</v>
       </c>
       <c r="B23" t="n">
-        <v>9.338613927807517</v>
+        <v>9.242612364145566</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1105,7 +1105,7 @@
         <v>2012</v>
       </c>
       <c r="B24" t="n">
-        <v>9.294886876908018</v>
+        <v>9.083739945698442</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
         <v>2013</v>
       </c>
       <c r="B25" t="n">
-        <v>9.505703634097443</v>
+        <v>9.040012894798943</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1125,7 +1125,7 @@
         <v>2014</v>
       </c>
       <c r="B26" t="n">
-        <v>9.326007029243744</v>
+        <v>9.250829651988369</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1135,7 +1135,7 @@
         <v>2015</v>
       </c>
       <c r="B27" t="n">
-        <v>9.213357502950581</v>
+        <v>9.071133047134669</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1145,7 +1145,7 @@
         <v>2016</v>
       </c>
       <c r="B28" t="n">
-        <v>8.995169187528946</v>
+        <v>8.958483520841506</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1155,7 +1155,7 @@
         <v>2017</v>
       </c>
       <c r="B29" t="n">
-        <v>8.947601570326869</v>
+        <v>8.740295205419871</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1165,7 +1165,7 @@
         <v>2018</v>
       </c>
       <c r="B30" t="n">
-        <v>8.846981668337641</v>
+        <v>8.692727588217794</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1175,7 +1175,7 @@
         <v>2019</v>
       </c>
       <c r="B31" t="n">
-        <v>8.879728176020482</v>
+        <v>8.592107686228566</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1185,7 +1185,7 @@
         <v>2020</v>
       </c>
       <c r="B32" t="n">
-        <v>8.697854008196687</v>
+        <v>8.624854193911407</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1195,7 +1195,7 @@
         <v>2021</v>
       </c>
       <c r="B33" t="n">
-        <v>8.76690832410466</v>
+        <v>8.442980026087612</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
